--- a/Create gallery TC.xlsx
+++ b/Create gallery TC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilijaboskovic/Desktop/Zavrsni rad/Ilija-Boskovic---Zavrsni-rad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CFDE6BB-D319-884A-94C6-FC678B5D4B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D236CB5-3959-D045-8B42-6EF741813D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>[Create gallery] - No image url</t>
-  </si>
-  <si>
-    <t>Try to create a gallery with image url</t>
   </si>
   <si>
     <t>1. Fill out Title input field
@@ -277,6 +274,9 @@
 - Move down(image)
 - Submit 
 - Cancel</t>
+  </si>
+  <si>
+    <t>Try to create a gallery without image url</t>
   </si>
 </sst>
 </file>
@@ -470,44 +470,14 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -518,8 +488,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -527,14 +515,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,8 +756,8 @@
   </sheetPr>
   <dimension ref="A1:I1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -819,14 +819,14 @@
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="18" t="s">
+      <c r="E4" s="22"/>
+      <c r="F4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
@@ -835,17 +835,17 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:9" ht="77" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
@@ -857,33 +857,33 @@
       <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="19" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="22" t="s">
-        <v>59</v>
+      <c r="I6" s="15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:9" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
@@ -895,18 +895,18 @@
       <c r="C8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="24" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -914,24 +914,24 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="28" t="s">
+      <c r="E9" s="31"/>
+      <c r="F9" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30" t="s">
-        <v>42</v>
+      <c r="G9" s="26"/>
+      <c r="H9" s="18" t="s">
+        <v>41</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="19" t="s">
         <v>30</v>
       </c>
     </row>
@@ -939,35 +939,35 @@
       <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="20" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="28" t="s">
+      <c r="G10" s="26"/>
+      <c r="H10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="10"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="8"/>
       <c r="I11" s="9"/>
     </row>
@@ -975,10 +975,10 @@
       <c r="A12" s="5"/>
       <c r="B12" s="10"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
     </row>
@@ -986,10 +986,10 @@
       <c r="A13" s="5"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="8"/>
       <c r="I13" s="9"/>
     </row>
@@ -997,10 +997,10 @@
       <c r="A14" s="5"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
       <c r="H14" s="8"/>
       <c r="I14" s="9"/>
     </row>
@@ -1008,10 +1008,10 @@
       <c r="A15" s="5"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="8"/>
       <c r="I15" s="9"/>
     </row>
@@ -1019,10 +1019,10 @@
       <c r="A16" s="5"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
     </row>
@@ -1030,10 +1030,10 @@
       <c r="A17" s="5"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="8"/>
       <c r="I17" s="9"/>
     </row>
@@ -1041,10 +1041,10 @@
       <c r="A18" s="5"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="8"/>
       <c r="I18" s="9"/>
     </row>
@@ -1052,10 +1052,10 @@
       <c r="A19" s="5"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="8"/>
       <c r="I19" s="9"/>
     </row>
@@ -1063,134 +1063,134 @@
       <c r="A20" s="5"/>
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="8"/>
       <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="38"/>
+      <c r="H23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="I24" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="36" t="s">
-        <v>41</v>
+      <c r="E25" s="22"/>
+      <c r="F25" s="36" t="s">
+        <v>57</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="6" t="s">
+      <c r="G25" s="22"/>
+      <c r="H25" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
+      <c r="I25" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="8"/>
       <c r="I26" s="9"/>
     </row>
@@ -1198,10 +1198,10 @@
       <c r="A27" s="5"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
       <c r="H27" s="8"/>
       <c r="I27" s="9"/>
     </row>
@@ -1209,10 +1209,10 @@
       <c r="A28" s="5"/>
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
       <c r="H28" s="8"/>
       <c r="I28" s="9"/>
     </row>
@@ -1220,10 +1220,10 @@
       <c r="A29" s="5"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
       <c r="H29" s="8"/>
       <c r="I29" s="9"/>
     </row>
@@ -1231,10 +1231,10 @@
       <c r="A30" s="5"/>
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
       <c r="H30" s="8"/>
       <c r="I30" s="9"/>
     </row>
@@ -11976,6 +11976,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="A21:I21"/>
@@ -11985,48 +12020,13 @@
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D29:E29"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
